--- a/biology/Zoologie/Decticelle_aptère/Decticelle_aptère.xlsx
+++ b/biology/Zoologie/Decticelle_aptère/Decticelle_aptère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Decticelle_apt%C3%A8re</t>
+          <t>Decticelle_aptère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pholidoptera aptera
 La decticelle aptère, Pholidoptera aptera, est une espèce de sauterelles de la famille des Tettigoniidae.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Decticelle_apt%C3%A8re</t>
+          <t>Decticelle_aptère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe : essentiellement depuis la France (Massif Central, Alpes), sud de l'Allemagne, Suisse, Italie et jusqu'au sud-est de l'Europe (Slovaquie, Bulgarie, Roumanie, Slovénie).
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Decticelle_apt%C3%A8re</t>
+          <t>Decticelle_aptère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette decticelle est nettement plus grande que la decticelle cendrée (Pholidoptera griseoaptera) : le mâle atteint 19 à 22 mm de long, la femelle, 22 à 25 mm. Le mâle bigarré a les lobes latéraux du pronotum noirs, ses tegmina sont longs de 6 à 8 mm ; les femelles brunâtres ont des tegmina courts (environ 2 mm de long), presque totalement cachés par l'arrière du pronotum ; leur oviscapte est légèrement courbé, de longueur analogue à celle de l'abdomen. Chez les deux sexes, les lobes latéraux du pronotum sont soulignés par une bande marginale claire nette, le ventre est jaune.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Decticelle_apt%C3%A8re</t>
+          <t>Decticelle_aptère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (8 oct. 2014)[1], liste de sous-espèces :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (8 oct. 2014), liste de sous-espèces :
 Pholidoptera aptera aptera (Fabricius, 1793)
 Pholidoptera aptera bohemica Maran, 1953
 Pholidoptera aptera bulgarica Maran, 1953
